--- a/automated_emails/people.xlsx
+++ b/automated_emails/people.xlsx
@@ -353,21 +353,21 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.25390625" defaultRowHeight="19.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="2.84375" defaultRowHeight="19.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.22"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="10" style="1" width="3.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="2.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.05"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="10" style="1" width="2.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
